--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Ccl11-Ackr2.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.7503183333333334</v>
+        <v>0.259924</v>
       </c>
       <c r="H2">
-        <v>2.250955</v>
+        <v>0.779772</v>
       </c>
       <c r="I2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="J2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>9.270987849798891</v>
+        <v>3.211639831810667</v>
       </c>
       <c r="R2">
-        <v>83.43889064819001</v>
+        <v>28.904758486296</v>
       </c>
       <c r="S2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851489</v>
       </c>
       <c r="T2">
-        <v>0.001871730106429625</v>
+        <v>0.0006491957374851488</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>383.1307676666666</v>
+        <v>383.1307676666667</v>
       </c>
       <c r="H3">
         <v>1149.392303</v>
       </c>
       <c r="I3">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="J3">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>4733.991606125117</v>
+        <v>4733.991606125118</v>
       </c>
       <c r="R3">
-        <v>42605.92445512605</v>
+        <v>42605.92445512606</v>
       </c>
       <c r="S3">
-        <v>0.9557508602453543</v>
+        <v>0.9569214896224009</v>
       </c>
       <c r="T3">
-        <v>0.9557508602453541</v>
+        <v>0.9569214896224006</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.98778433333334</v>
+        <v>16.98778433333333</v>
       </c>
       <c r="H4">
-        <v>50.96335300000001</v>
+        <v>50.963353</v>
       </c>
       <c r="I4">
-        <v>0.04237740964821623</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="J4">
-        <v>0.04237740964821622</v>
+        <v>0.04242931464011399</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -694,10 +694,10 @@
         <v>1889.120679014954</v>
       </c>
       <c r="S4">
-        <v>0.04237740964821623</v>
+        <v>0.042429314640114</v>
       </c>
       <c r="T4">
-        <v>0.04237740964821622</v>
+        <v>0.04242931464011399</v>
       </c>
     </row>
   </sheetData>
